--- a/data/trans_orig/P34A_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P34A_2023-Provincia-trans_orig.xlsx
@@ -551,7 +551,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre / solo 2023 en 2023 (tasa de respuesta: 99,76%)</t>
+          <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre en 2023 (tasa de respuesta: 99,76%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P34A_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P34A_2023-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>44786</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>31067</v>
+        <v>32294</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>64906</v>
+        <v>63894</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1404622119280166</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09743556276996793</v>
+        <v>0.1012858459727013</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2035667382203257</v>
+        <v>0.2003910641037102</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -762,19 +762,19 @@
         <v>14348</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8866</v>
+        <v>9400</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22163</v>
+        <v>24033</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04539621744630506</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02805195390902481</v>
+        <v>0.02974133144754275</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07012306386258046</v>
+        <v>0.07603971956523251</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>54</v>
@@ -783,19 +783,19 @@
         <v>59134</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>44167</v>
+        <v>44347</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>76988</v>
+        <v>79251</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09313768997620936</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06956387930869623</v>
+        <v>0.06984886049458509</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1212591710846996</v>
+        <v>0.1248236335462154</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>18097</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10912</v>
+        <v>10750</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>31342</v>
+        <v>28917</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.05675798115549868</v>
+        <v>0.0567579811554987</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03422221626189021</v>
+        <v>0.03371628641117568</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09829953056712429</v>
+        <v>0.09069356811786347</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>10</v>
@@ -833,19 +833,19 @@
         <v>8095</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3743</v>
+        <v>3448</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>15174</v>
+        <v>15430</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02561152496422989</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01184130679122564</v>
+        <v>0.01090818917724598</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04800987536594824</v>
+        <v>0.04882004248794453</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>27</v>
@@ -854,19 +854,19 @@
         <v>26192</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>16689</v>
+        <v>16908</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>39387</v>
+        <v>39306</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04125305578464735</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02628563980584665</v>
+        <v>0.02663077131022245</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06203541414650348</v>
+        <v>0.06190910003548303</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>112231</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>95398</v>
+        <v>95800</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>129872</v>
+        <v>129370</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3519912734900116</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2991991992651005</v>
+        <v>0.3004592096783694</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4073208530106151</v>
+        <v>0.4057459009885423</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>235</v>
@@ -904,19 +904,19 @@
         <v>133093</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>118576</v>
+        <v>119363</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>148068</v>
+        <v>147691</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.4210979700421172</v>
+        <v>0.4210979700421171</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.375168498321687</v>
+        <v>0.3776569333540339</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4684777929519248</v>
+        <v>0.4672873930024309</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>362</v>
@@ -925,19 +925,19 @@
         <v>245323</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>223271</v>
+        <v>220614</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>269430</v>
+        <v>266159</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3863930740058223</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3516604386788223</v>
+        <v>0.3474744478044514</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4243617757661945</v>
+        <v>0.4192093499824408</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>102665</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>85792</v>
+        <v>87042</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>119772</v>
+        <v>120770</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.3219904132960341</v>
+        <v>0.3219904132960342</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2690722252412987</v>
+        <v>0.2729929497534631</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3756427972795951</v>
+        <v>0.378772429737353</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>181</v>
@@ -975,19 +975,19 @@
         <v>102474</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>89972</v>
+        <v>89216</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>117339</v>
+        <v>116688</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.3242220487908447</v>
+        <v>0.3242220487908446</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2846664264570745</v>
+        <v>0.2822753447796278</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3712553892002706</v>
+        <v>0.3691954588809405</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>296</v>
@@ -996,19 +996,19 @@
         <v>205139</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>184049</v>
+        <v>185084</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>226890</v>
+        <v>227480</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.3231013371709525</v>
+        <v>0.3231013371709526</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.289883607522214</v>
+        <v>0.2915141260118985</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3573605906825843</v>
+        <v>0.3582893655626297</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>41067</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>28743</v>
+        <v>30038</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>54659</v>
+        <v>54574</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.128798120130439</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.09014709829580898</v>
+        <v>0.09420963636657519</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1714275585609508</v>
+        <v>0.1711609506803205</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>91</v>
@@ -1046,19 +1046,19 @@
         <v>58052</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>46272</v>
+        <v>47339</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>70038</v>
+        <v>70878</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1836722387565032</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.146400705460483</v>
+        <v>0.1497794690371147</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2215961220897507</v>
+        <v>0.2242525999034952</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>130</v>
@@ -1067,19 +1067,19 @@
         <v>99118</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>82836</v>
+        <v>82636</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>118196</v>
+        <v>118241</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.1561148430623685</v>
+        <v>0.1561148430623684</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1304695217810476</v>
+        <v>0.1301543867692939</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1861628070527717</v>
+        <v>0.1862332621157512</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>59666</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>43838</v>
+        <v>43607</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>81608</v>
+        <v>80784</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1127424390029137</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08283454837621293</v>
+        <v>0.08239877905147716</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.154203764612421</v>
+        <v>0.1526469530748671</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>35</v>
@@ -1192,19 +1192,19 @@
         <v>26525</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>18834</v>
+        <v>18459</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>35970</v>
+        <v>36189</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04858950045795669</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03450125098517581</v>
+        <v>0.03381441861186824</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06589257970120418</v>
+        <v>0.06629203884190024</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>74</v>
@@ -1213,19 +1213,19 @@
         <v>86191</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>68174</v>
+        <v>65074</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>109890</v>
+        <v>109241</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.08016852025064697</v>
+        <v>0.08016852025064698</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06341056948611455</v>
+        <v>0.06052743467533854</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1022123640212837</v>
+        <v>0.1016086683748734</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>71241</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>50610</v>
+        <v>50946</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>99519</v>
+        <v>96618</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1346134512302272</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09563065489998912</v>
+        <v>0.09626538938361145</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1880467487990743</v>
+        <v>0.182565016712341</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>31</v>
@@ -1263,19 +1263,19 @@
         <v>26673</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>17931</v>
+        <v>18449</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>37454</v>
+        <v>38778</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.04886065288784514</v>
+        <v>0.04886065288784515</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03284638375805075</v>
+        <v>0.03379586480193382</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.06861081774837111</v>
+        <v>0.07103588053585985</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>67</v>
@@ -1284,19 +1284,19 @@
         <v>97913</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>74899</v>
+        <v>77881</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>125864</v>
+        <v>129998</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.09107211470942582</v>
+        <v>0.09107211470942585</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06966591050319956</v>
+        <v>0.07243980990201461</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1170695881142491</v>
+        <v>0.1209146768814541</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>191401</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>165372</v>
+        <v>165598</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>219797</v>
+        <v>219656</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3616644582389964</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3124800234341474</v>
+        <v>0.3129075021166768</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4153209249942206</v>
+        <v>0.415053934742457</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>258</v>
@@ -1334,19 +1334,19 @@
         <v>202606</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>182879</v>
+        <v>182632</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>225286</v>
+        <v>222968</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.3711432781361437</v>
+        <v>0.3711432781361436</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.335006207698159</v>
+        <v>0.3345541455509285</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4126910098066158</v>
+        <v>0.408444710778768</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>404</v>
@@ -1355,19 +1355,19 @@
         <v>394007</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>360213</v>
+        <v>360092</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>425557</v>
+        <v>429004</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.3664773680791383</v>
+        <v>0.3664773680791384</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3350443638273897</v>
+        <v>0.3349323950886685</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3958234317570436</v>
+        <v>0.3990290365665708</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>91715</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>73169</v>
+        <v>73333</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>112752</v>
+        <v>113376</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1733019716119513</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1382580630851048</v>
+        <v>0.1385672640378945</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2130519126291878</v>
+        <v>0.214230557486232</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>155</v>
@@ -1405,19 +1405,19 @@
         <v>106898</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>91961</v>
+        <v>91045</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>124463</v>
+        <v>124102</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1958204273835274</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1684587425070372</v>
+        <v>0.1667814589267232</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2279983219195555</v>
+        <v>0.2273371016013528</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>230</v>
@@ -1426,19 +1426,19 @@
         <v>198613</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>174224</v>
+        <v>172895</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>224057</v>
+        <v>225360</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1847358102694868</v>
+        <v>0.1847358102694869</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1620510233698595</v>
+        <v>0.160814663892496</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2084018753368778</v>
+        <v>0.2096143166804376</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>115200</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>94011</v>
+        <v>93887</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>142064</v>
+        <v>139251</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2176776799159114</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1776400665484913</v>
+        <v>0.1774054672563228</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2684380935722898</v>
+        <v>0.26312362452968</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>237</v>
@@ -1476,19 +1476,19 @@
         <v>183195</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>163541</v>
+        <v>162904</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>204194</v>
+        <v>203833</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3355861411345271</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2995835561587659</v>
+        <v>0.2984165707117543</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3740535389673295</v>
+        <v>0.3733920235567812</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>322</v>
@@ -1497,19 +1497,19 @@
         <v>298395</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>268439</v>
+        <v>268464</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>330027</v>
+        <v>332971</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.277546186691302</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2496831061350046</v>
+        <v>0.2497065429674242</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3069682321928742</v>
+        <v>0.3097065931987358</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>36258</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>27193</v>
+        <v>26711</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>49476</v>
+        <v>48499</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1147414685449855</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08605465001392043</v>
+        <v>0.08453119631534212</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1565720286216661</v>
+        <v>0.1534796854047154</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>76</v>
@@ -1622,19 +1622,19 @@
         <v>55444</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>44447</v>
+        <v>44975</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>68625</v>
+        <v>70455</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.1555758768855945</v>
+        <v>0.1555758768855946</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1247172414605575</v>
+        <v>0.1261988343255238</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1925614341548086</v>
+        <v>0.1976947600358486</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>115</v>
@@ -1643,19 +1643,19 @@
         <v>91702</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>75703</v>
+        <v>76605</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>109689</v>
+        <v>108382</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.136385084356701</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1125900945024743</v>
+        <v>0.1139314068916638</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1631363701246904</v>
+        <v>0.1611920479486211</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>61339</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>45535</v>
+        <v>47625</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>77991</v>
+        <v>77153</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1941162898098664</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1441009695496245</v>
+        <v>0.1507146998438099</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2468123309844433</v>
+        <v>0.2441595636730222</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>29</v>
@@ -1693,19 +1693,19 @@
         <v>24304</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>15702</v>
+        <v>16414</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>34908</v>
+        <v>35429</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.06819647926852561</v>
+        <v>0.06819647926852562</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04406015026157271</v>
+        <v>0.04605617617376618</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09795252025435179</v>
+        <v>0.09941423515390445</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>81</v>
@@ -1714,19 +1714,19 @@
         <v>85643</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>68116</v>
+        <v>67556</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>104415</v>
+        <v>105107</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1273745366367106</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1013062961395696</v>
+        <v>0.1004738317260542</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1552930677308974</v>
+        <v>0.1563223483468788</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>101083</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>85655</v>
+        <v>87088</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>116675</v>
+        <v>116943</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3198888022941128</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2710661042041705</v>
+        <v>0.2756020320912634</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3692323797232047</v>
+        <v>0.3700809189540962</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>209</v>
@@ -1764,19 +1764,19 @@
         <v>134010</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>120099</v>
+        <v>118501</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>149020</v>
+        <v>149309</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.3760289231567019</v>
+        <v>0.3760289231567021</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3369960747245254</v>
+        <v>0.332513441532389</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4181471187741922</v>
+        <v>0.4189585393031853</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>344</v>
@@ -1785,19 +1785,19 @@
         <v>235093</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>215476</v>
+        <v>214386</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>258163</v>
+        <v>256286</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.3496449627712757</v>
+        <v>0.3496449627712756</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3204696624540219</v>
+        <v>0.318848829762207</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3839573852170179</v>
+        <v>0.3811651904032191</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>46899</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>35408</v>
+        <v>37209</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>59835</v>
+        <v>60915</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1484177485360996</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1120538547561699</v>
+        <v>0.1177532884746064</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1893553842974001</v>
+        <v>0.192774500255236</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>101</v>
@@ -1835,19 +1835,19 @@
         <v>63539</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>51910</v>
+        <v>51308</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>75367</v>
+        <v>75024</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.1782897250440867</v>
+        <v>0.1782897250440868</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1456598750478252</v>
+        <v>0.1439700242509691</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2114799171034072</v>
+        <v>0.2105171527357816</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>157</v>
@@ -1856,19 +1856,19 @@
         <v>110438</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>95441</v>
+        <v>96039</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>127853</v>
+        <v>128692</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1642509051642684</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1419457591114505</v>
+        <v>0.1428361487711073</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1901515023076674</v>
+        <v>0.1913994818943162</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>70415</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>57712</v>
+        <v>57040</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>86973</v>
+        <v>85825</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2228356908149356</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1826376231536321</v>
+        <v>0.1805103758243555</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2752357901017098</v>
+        <v>0.271604140478017</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>121</v>
@@ -1906,19 +1906,19 @@
         <v>79084</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>67650</v>
+        <v>66400</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>94058</v>
+        <v>93641</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.221908995645091</v>
+        <v>0.2219089956450911</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1898245973207604</v>
+        <v>0.1863168622649124</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2639249293722495</v>
+        <v>0.2627558224940192</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>199</v>
@@ -1927,19 +1927,19 @@
         <v>149499</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>129620</v>
+        <v>129846</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>168482</v>
+        <v>170724</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2223445110710444</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1927799832017149</v>
+        <v>0.1931148434853684</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2505771153654004</v>
+        <v>0.2539112919518793</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>37701</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>25544</v>
+        <v>24854</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>55801</v>
+        <v>55328</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1012135542267506</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06857697699593128</v>
+        <v>0.06672417546508491</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1498067514851652</v>
+        <v>0.1485368171054085</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>31</v>
@@ -2052,19 +2052,19 @@
         <v>28086</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>19805</v>
+        <v>19305</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>41396</v>
+        <v>41145</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.06656036369943137</v>
+        <v>0.06656036369943139</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04693498265977866</v>
+        <v>0.04575106777604716</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09810457074579156</v>
+        <v>0.09750892241132869</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>59</v>
@@ -2073,19 +2073,19 @@
         <v>65787</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>50393</v>
+        <v>48860</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>87385</v>
+        <v>87833</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.08280796859546399</v>
+        <v>0.08280796859546398</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06343136440150841</v>
+        <v>0.0615017770243398</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.109994157621338</v>
+        <v>0.1105579725903301</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>57691</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>40387</v>
+        <v>39465</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>79355</v>
+        <v>81691</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1548801155564244</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1084251036748333</v>
+        <v>0.1059489438595675</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2130416402554182</v>
+        <v>0.2193105541360715</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>36</v>
@@ -2123,19 +2123,19 @@
         <v>32664</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>22160</v>
+        <v>21590</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>47015</v>
+        <v>48001</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.07740917038438176</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0525175765374642</v>
+        <v>0.05116596553884772</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1114198887038274</v>
+        <v>0.1137559721299832</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>72</v>
@@ -2144,19 +2144,19 @@
         <v>90355</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>69188</v>
+        <v>68952</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>117343</v>
+        <v>117506</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1137324436219565</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.08708936281045306</v>
+        <v>0.08679215974239012</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.147702822943859</v>
+        <v>0.1479084585983906</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>148818</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>126973</v>
+        <v>125632</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>173257</v>
+        <v>171620</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3995231534946442</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3408779282108626</v>
+        <v>0.3372789238869173</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4651352954709404</v>
+        <v>0.4607392644842244</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>293</v>
@@ -2194,19 +2194,19 @@
         <v>197147</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>177123</v>
+        <v>177300</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>216834</v>
+        <v>218576</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.4672168246228205</v>
+        <v>0.4672168246228207</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4197618728189892</v>
+        <v>0.420181584759533</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5138710367893266</v>
+        <v>0.5179993391318747</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>427</v>
@@ -2215,19 +2215,19 @@
         <v>345965</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>313950</v>
+        <v>314275</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>375010</v>
+        <v>374059</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4354777551254393</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3951793386343297</v>
+        <v>0.3955882805679506</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4720374157963718</v>
+        <v>0.4708400643376184</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>87945</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>67218</v>
+        <v>69441</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>113244</v>
+        <v>115175</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2361008112214235</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1804556996363705</v>
+        <v>0.1864252324629357</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3040199799929228</v>
+        <v>0.3092034326799133</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>159</v>
@@ -2265,19 +2265,19 @@
         <v>108908</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>93218</v>
+        <v>91681</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>127535</v>
+        <v>127744</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2580993987357755</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.22091514623971</v>
+        <v>0.2172738309965667</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3022439957508621</v>
+        <v>0.302739540314333</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>222</v>
@@ -2286,19 +2286,19 @@
         <v>196853</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>169191</v>
+        <v>169237</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>223898</v>
+        <v>227918</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.247785071172713</v>
+        <v>0.2477850711727129</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.212966061621305</v>
+        <v>0.2130236987776261</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2818279985147917</v>
+        <v>0.2868882224257633</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>40334</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>26050</v>
+        <v>26294</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>56318</v>
+        <v>57034</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1082823655007572</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0699359422005635</v>
+        <v>0.07058929874292957</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1511943334255464</v>
+        <v>0.1531159326889111</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>80</v>
@@ -2336,19 +2336,19 @@
         <v>55156</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>44061</v>
+        <v>44293</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>71184</v>
+        <v>71273</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1307142425575909</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1044193559780565</v>
+        <v>0.1049703781568108</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1686986288907973</v>
+        <v>0.1689095007110286</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>110</v>
@@ -2357,19 +2357,19 @@
         <v>95490</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>77412</v>
+        <v>76063</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>118672</v>
+        <v>117136</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1201967614844273</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.09744103461704427</v>
+        <v>0.09574351499908321</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.149376074827971</v>
+        <v>0.147442774405924</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>23346</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>14122</v>
+        <v>14656</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>34278</v>
+        <v>34622</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1135161675320696</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.06866617248551976</v>
+        <v>0.07125918192167784</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1666706078565072</v>
+        <v>0.1683424961543422</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>7</v>
@@ -2482,19 +2482,19 @@
         <v>3904</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1485</v>
+        <v>1642</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>8577</v>
+        <v>8568</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01724171550616334</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.006555969116546717</v>
+        <v>0.007253494069732113</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03787850874048718</v>
+        <v>0.03783719159697955</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>28</v>
@@ -2503,19 +2503,19 @@
         <v>27250</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>17746</v>
+        <v>17987</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>39315</v>
+        <v>40020</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.06306501671865949</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04106924738624064</v>
+        <v>0.0416278668152904</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.09098606457193274</v>
+        <v>0.09261800172729828</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>14730</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>8566</v>
+        <v>8521</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>23050</v>
+        <v>23943</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.07161914969218439</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04164899057689062</v>
+        <v>0.04143263782189763</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1120743127264995</v>
+        <v>0.1164197050678234</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>8</v>
@@ -2553,19 +2553,19 @@
         <v>4991</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2085</v>
+        <v>2206</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>10727</v>
+        <v>10767</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02204175031342205</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.009206825856978733</v>
+        <v>0.009741452399187393</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04737348473854458</v>
+        <v>0.04754966294543565</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>24</v>
@@ -2574,19 +2574,19 @@
         <v>19721</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>12490</v>
+        <v>12635</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>29381</v>
+        <v>29803</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.04563887350924074</v>
+        <v>0.04563887350924073</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0289059563065951</v>
+        <v>0.02924007860318092</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.06799616069782734</v>
+        <v>0.06897202045059976</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>148723</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>135729</v>
+        <v>134824</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>159924</v>
+        <v>160184</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.7231325648095653</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.6599518831834374</v>
+        <v>0.655549895620906</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.7775970369415196</v>
+        <v>0.7788593026718742</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>404</v>
@@ -2624,19 +2624,19 @@
         <v>186640</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>177694</v>
+        <v>177968</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>194618</v>
+        <v>194676</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.824251078661824</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.7847406735451408</v>
+        <v>0.785953724091237</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.8594828781666876</v>
+        <v>0.8597375370470444</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>616</v>
@@ -2645,19 +2645,19 @@
         <v>335362</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>318682</v>
+        <v>320597</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>348821</v>
+        <v>349545</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.7761221719694736</v>
+        <v>0.7761221719694735</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.7375185299569166</v>
+        <v>0.7419515490431571</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.8072698387702348</v>
+        <v>0.8089442344201225</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>13875</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>8992</v>
+        <v>8821</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>20704</v>
+        <v>20435</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.06746266111037437</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.04372102375938981</v>
+        <v>0.04288941477968355</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1006670495904072</v>
+        <v>0.09935892481704285</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>62</v>
@@ -2695,19 +2695,19 @@
         <v>27095</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>20978</v>
+        <v>21039</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>35118</v>
+        <v>34815</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.1196592027248827</v>
+        <v>0.1196592027248826</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.09264399235887398</v>
+        <v>0.0929134220510401</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1550893523655079</v>
+        <v>0.1537516947410407</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>84</v>
@@ -2716,19 +2716,19 @@
         <v>40970</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>32165</v>
+        <v>33114</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>50528</v>
+        <v>50714</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.09481545863368186</v>
+        <v>0.09481545863368185</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.07443907783544418</v>
+        <v>0.07663564722268151</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1169362166819571</v>
+        <v>0.1173655593217218</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>4991</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2332</v>
+        <v>2437</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>9426</v>
+        <v>9721</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02426945685580621</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01133737755314131</v>
+        <v>0.0118508224946482</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.04583139271002563</v>
+        <v>0.04726725440906776</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>9</v>
@@ -2766,19 +2766,19 @@
         <v>3806</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1727</v>
+        <v>1692</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>6765</v>
+        <v>6646</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01680625279370792</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.00762672424567034</v>
+        <v>0.007473513411409403</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02987618907579137</v>
+        <v>0.02935203807731984</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>17</v>
@@ -2787,19 +2787,19 @@
         <v>8797</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5288</v>
+        <v>5213</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>13708</v>
+        <v>13954</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02035847916894431</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01223823150981722</v>
+        <v>0.01206395258135103</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03172523340347067</v>
+        <v>0.03229251274770337</v>
       </c>
     </row>
     <row r="33">
@@ -2891,19 +2891,19 @@
         <v>11372</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>6006</v>
+        <v>5786</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>19656</v>
+        <v>19912</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.04200856400172195</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.02218785253911913</v>
+        <v>0.02137270232190211</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.07260887557002604</v>
+        <v>0.07355489178123779</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1</v>
@@ -2915,16 +2915,16 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>4388</v>
+        <v>5530</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.003324357560765142</v>
+        <v>0.003324357560765141</v>
       </c>
       <c r="O34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01663672817735905</v>
+        <v>0.02096561748057348</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>12</v>
@@ -2933,19 +2933,19 @@
         <v>12249</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>6393</v>
+        <v>6998</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>20228</v>
+        <v>21303</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02291822452771595</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01196196197322334</v>
+        <v>0.0130934056424551</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.03784762424945334</v>
+        <v>0.03985847459415246</v>
       </c>
     </row>
     <row r="35">
@@ -2962,19 +2962,19 @@
         <v>42288</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>30718</v>
+        <v>30438</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>55066</v>
+        <v>54867</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1562149825729738</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1134729267402116</v>
+        <v>0.112438338155183</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2034143038316072</v>
+        <v>0.2026818131405878</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>34</v>
@@ -2983,19 +2983,19 @@
         <v>24891</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>17698</v>
+        <v>16635</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>34360</v>
+        <v>33249</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.09437206516083926</v>
+        <v>0.09437206516083924</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.0671032734128291</v>
+        <v>0.06307150281701697</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1302762605549535</v>
+        <v>0.1260636658151868</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>75</v>
@@ -3004,19 +3004,19 @@
         <v>67179</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>53912</v>
+        <v>52870</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>83193</v>
+        <v>82566</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1256960086536689</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1008723045253009</v>
+        <v>0.09892194192152198</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1556584252556337</v>
+        <v>0.1544852345600579</v>
       </c>
     </row>
     <row r="36">
@@ -3033,19 +3033,19 @@
         <v>102280</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>89073</v>
+        <v>89091</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>116304</v>
+        <v>117399</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3778259893388758</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3290381101814984</v>
+        <v>0.3291063045663852</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4296307253548625</v>
+        <v>0.4336744068287524</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>232</v>
@@ -3054,19 +3054,19 @@
         <v>124954</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>111850</v>
+        <v>113011</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>138906</v>
+        <v>138107</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.4737584337032207</v>
+        <v>0.4737584337032205</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.4240768558865839</v>
+        <v>0.4284787671457545</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.5266591712330571</v>
+        <v>0.5236274841236083</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>398</v>
@@ -3075,19 +3075,19 @@
         <v>227234</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>209260</v>
+        <v>209636</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>247851</v>
+        <v>248049</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.4251678659851436</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3915368742593653</v>
+        <v>0.3922418623493227</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4637444733800767</v>
+        <v>0.464113357929422</v>
       </c>
     </row>
     <row r="37">
@@ -3104,19 +3104,19 @@
         <v>9143</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>5023</v>
+        <v>4937</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>14798</v>
+        <v>15577</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.03377283585183177</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.018556279539078</v>
+        <v>0.01823710133251993</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.05466412589679034</v>
+        <v>0.05754239136296593</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>12</v>
@@ -3125,19 +3125,19 @@
         <v>6329</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>3614</v>
+        <v>3248</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>10551</v>
+        <v>10534</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.02399517185149353</v>
+        <v>0.02399517185149352</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01370268826754373</v>
+        <v>0.0123153758618765</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.0400024710884073</v>
+        <v>0.03993809802787932</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>27</v>
@@ -3146,19 +3146,19 @@
         <v>15471</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>10463</v>
+        <v>10492</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>22055</v>
+        <v>22939</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.02894763864081699</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01957621515865753</v>
+        <v>0.01963183376806034</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.04126707319790716</v>
+        <v>0.04291993934064069</v>
       </c>
     </row>
     <row r="38">
@@ -3175,19 +3175,19 @@
         <v>105624</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>90556</v>
+        <v>91427</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>119984</v>
+        <v>121109</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.3901776282345967</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3345163140310538</v>
+        <v>0.337732424946722</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.4432235964014844</v>
+        <v>0.4473805488872096</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>181</v>
@@ -3196,19 +3196,19 @@
         <v>106700</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>94382</v>
+        <v>94240</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>120464</v>
+        <v>120226</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.4045499717236816</v>
+        <v>0.4045499717236814</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.3578460796902193</v>
+        <v>0.3573070206903234</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.4567345568852207</v>
+        <v>0.4558327018110745</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>319</v>
@@ -3217,19 +3217,19 @@
         <v>212324</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>194148</v>
+        <v>193127</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>231188</v>
+        <v>232170</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.3972702621926544</v>
+        <v>0.3972702621926545</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.3632615189560601</v>
+        <v>0.3613509973694107</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4325660639798619</v>
+        <v>0.4344039377597115</v>
       </c>
     </row>
     <row r="39">
@@ -3321,19 +3321,19 @@
         <v>96472</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>75780</v>
+        <v>74685</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>120910</v>
+        <v>118647</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1350678905775501</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1060978463299399</v>
+        <v>0.1045655368097413</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1692838242622002</v>
+        <v>0.16611580900641</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>91</v>
@@ -3342,19 +3342,19 @@
         <v>76292</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>62325</v>
+        <v>61191</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>93645</v>
+        <v>92570</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.09953903252424415</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.08131631458523955</v>
+        <v>0.07983629847652535</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1221799835274787</v>
+        <v>0.1207773891997472</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>162</v>
@@ -3363,19 +3363,19 @@
         <v>172763</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>148369</v>
+        <v>148442</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>202394</v>
+        <v>204875</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1166771249715449</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1002022539971135</v>
+        <v>0.1002512383902512</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1366885503771287</v>
+        <v>0.1383638694564628</v>
       </c>
     </row>
     <row r="41">
@@ -3392,19 +3392,19 @@
         <v>78205</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>60288</v>
+        <v>59368</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>101680</v>
+        <v>104189</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1094931250095138</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.08440772276730724</v>
+        <v>0.08311925571811125</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1423595035715548</v>
+        <v>0.1458730653474094</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>67</v>
@@ -3413,19 +3413,19 @@
         <v>59252</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>45086</v>
+        <v>45737</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>74273</v>
+        <v>74208</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.07730759477402396</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.0588242590087661</v>
+        <v>0.05967324184595027</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.09690546112814712</v>
+        <v>0.0968209167867275</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>122</v>
@@ -3434,19 +3434,19 @@
         <v>137457</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>114469</v>
+        <v>112635</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>170097</v>
+        <v>163851</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.09283296268237681</v>
+        <v>0.09283296268237683</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.07730760972888481</v>
+        <v>0.07606918748081751</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1148761146048357</v>
+        <v>0.1106583501365778</v>
       </c>
     </row>
     <row r="42">
@@ -3463,19 +3463,19 @@
         <v>332082</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>302722</v>
+        <v>300004</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>364438</v>
+        <v>364577</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.4649408346716531</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.4238355536461942</v>
+        <v>0.4200289757756337</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.5102417132294854</v>
+        <v>0.510437132283362</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>414</v>
@@ -3484,19 +3484,19 @@
         <v>316040</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>290075</v>
+        <v>292296</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>342176</v>
+        <v>341100</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.4123415898356161</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.3784646770951889</v>
+        <v>0.3813624382830383</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.4464420886230279</v>
+        <v>0.4450387246273987</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>701</v>
@@ -3505,19 +3505,19 @@
         <v>648122</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>605990</v>
+        <v>609774</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>688634</v>
+        <v>693303</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.4377139426229112</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.4092596728341803</v>
+        <v>0.4118157809179561</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.465074430108979</v>
+        <v>0.4682275660702117</v>
       </c>
     </row>
     <row r="43">
@@ -3534,19 +3534,19 @@
         <v>89955</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>71551</v>
+        <v>73878</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>111730</v>
+        <v>112976</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1259443818943082</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1001772211150179</v>
+        <v>0.1034357798345207</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.15643138266987</v>
+        <v>0.1581749366299197</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>191</v>
@@ -3555,19 +3555,19 @@
         <v>153775</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>133822</v>
+        <v>133097</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>174452</v>
+        <v>174568</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.20063222546921</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1745993676257006</v>
+        <v>0.1736542636713544</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2276101749404252</v>
+        <v>0.2277613696647348</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>275</v>
@@ -3576,19 +3576,19 @@
         <v>243730</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>216703</v>
+        <v>213925</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>274710</v>
+        <v>272980</v>
       </c>
       <c r="U43" s="6" t="n">
-        <v>0.1646049721880676</v>
+        <v>0.1646049721880677</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1463517077336467</v>
+        <v>0.1444758072509822</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1855271820764001</v>
+        <v>0.1843588154769681</v>
       </c>
     </row>
     <row r="44">
@@ -3605,19 +3605,19 @@
         <v>117532</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>97048</v>
+        <v>97377</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>140902</v>
+        <v>142862</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1645537678469749</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1358747102532679</v>
+        <v>0.1363352658832344</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1972737026842862</v>
+        <v>0.2000175350740526</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>190</v>
@@ -3626,19 +3626,19 @@
         <v>161092</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>142636</v>
+        <v>139991</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>185360</v>
+        <v>183591</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.2101795573969057</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1860992557376165</v>
+        <v>0.1826479538489084</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2418424638023688</v>
+        <v>0.239533983311954</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>287</v>
@@ -3647,19 +3647,19 @@
         <v>278624</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>246386</v>
+        <v>246609</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>309798</v>
+        <v>309166</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.1881709975350994</v>
+        <v>0.1881709975350993</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1663987956076702</v>
+        <v>0.1665490270888136</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2092246808405228</v>
+        <v>0.2087975712305881</v>
       </c>
     </row>
     <row r="45">
@@ -3751,19 +3751,19 @@
         <v>118315</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>97568</v>
+        <v>96881</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>146282</v>
+        <v>144369</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1487067239590139</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1226301056829481</v>
+        <v>0.1217672792402755</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1838576809961255</v>
+        <v>0.1814531226343758</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>68</v>
@@ -3772,19 +3772,19 @@
         <v>55933</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>43191</v>
+        <v>44855</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>70728</v>
+        <v>71238</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.06746291315546296</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.05209437395916579</v>
+        <v>0.05410120696808286</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.08530729170959947</v>
+        <v>0.08592228844693593</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>157</v>
@@ -3793,19 +3793,19 @@
         <v>174248</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>147718</v>
+        <v>150291</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>205525</v>
+        <v>205034</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.1072480526387092</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.09091869955831834</v>
+        <v>0.09250238862935591</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.1264982750717907</v>
+        <v>0.1261964482206424</v>
       </c>
     </row>
     <row r="47">
@@ -3822,19 +3822,19 @@
         <v>103581</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>84082</v>
+        <v>84151</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>126905</v>
+        <v>126331</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>0.1301873338531468</v>
+        <v>0.1301873338531467</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1056800457810382</v>
+        <v>0.1057670296432175</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1595025954961007</v>
+        <v>0.1587821159114296</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>64</v>
@@ -3843,19 +3843,19 @@
         <v>52747</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>40926</v>
+        <v>39720</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>68029</v>
+        <v>66445</v>
       </c>
       <c r="N47" s="6" t="n">
-        <v>0.06362043600016939</v>
+        <v>0.06362043600016942</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.04936245188742035</v>
+        <v>0.04790756852137722</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.08205169609433002</v>
+        <v>0.08014189412766894</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>151</v>
@@ -3864,19 +3864,19 @@
         <v>156328</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>132386</v>
+        <v>131954</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>184121</v>
+        <v>182514</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.09621828302203701</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.0814820221439151</v>
+        <v>0.08121631706047897</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1133247362890197</v>
+        <v>0.1123353260373451</v>
       </c>
     </row>
     <row r="48">
@@ -3893,19 +3893,19 @@
         <v>332785</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>305526</v>
+        <v>301831</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>360805</v>
+        <v>362052</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.4182677096890817</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.3840065175994731</v>
+        <v>0.3793623200252608</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.4534854154388961</v>
+        <v>0.455051914010674</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>530</v>
@@ -3914,19 +3914,19 @@
         <v>427687</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>402094</v>
+        <v>402565</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>456200</v>
+        <v>452712</v>
       </c>
       <c r="N48" s="6" t="n">
-        <v>0.5158481336144674</v>
+        <v>0.5158481336144675</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.4849793283450444</v>
+        <v>0.4855478750374033</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.5502382041463139</v>
+        <v>0.5460311079131347</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>858</v>
@@ -3935,19 +3935,19 @@
         <v>760472</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>717281</v>
+        <v>720109</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>796275</v>
+        <v>799381</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.4680629455698897</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.4414792718268318</v>
+        <v>0.443220033348991</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.4900991760506025</v>
+        <v>0.4920108838620102</v>
       </c>
     </row>
     <row r="49">
@@ -3964,19 +3964,19 @@
         <v>208479</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>185336</v>
+        <v>182129</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>237449</v>
+        <v>232881</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.2620312163913809</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2329432100923106</v>
+        <v>0.2289123530367263</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.2984424377871563</v>
+        <v>0.2927006028781125</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>332</v>
@@ -3985,19 +3985,19 @@
         <v>240609</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>218446</v>
+        <v>217237</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>264447</v>
+        <v>264984</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.290206272013018</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.2634754172045001</v>
+        <v>0.2620169527446192</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.3189590894210783</v>
+        <v>0.3196068683302022</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>557</v>
@@ -4006,19 +4006,19 @@
         <v>449088</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>416087</v>
+        <v>414515</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>484200</v>
+        <v>481674</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.2764089315538718</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.256097331470478</v>
+        <v>0.2551296176565476</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.2980202280202491</v>
+        <v>0.296465287943905</v>
       </c>
     </row>
     <row r="50">
@@ -4035,19 +4035,19 @@
         <v>32467</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>22495</v>
+        <v>22275</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>45530</v>
+        <v>45478</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.04080701610737685</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.02827359604728626</v>
+        <v>0.02799733762200391</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.05722581707549371</v>
+        <v>0.05716054919974537</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>65</v>
@@ -4056,19 +4056,19 @@
         <v>52119</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>40464</v>
+        <v>40351</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>65567</v>
+        <v>66366</v>
       </c>
       <c r="N50" s="6" t="n">
-        <v>0.0628622452168823</v>
+        <v>0.06286224521688231</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.04880453639555239</v>
+        <v>0.04866837985630973</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.07908201840787143</v>
+        <v>0.0800464542766693</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>96</v>
@@ -4077,19 +4077,19 @@
         <v>84586</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>69481</v>
+        <v>69542</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>104313</v>
+        <v>104027</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.0520617872154923</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.04276493717931072</v>
+        <v>0.04280245511991222</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.06420340642599058</v>
+        <v>0.06402739072353576</v>
       </c>
     </row>
     <row r="51">
@@ -4181,19 +4181,19 @@
         <v>427915</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>379960</v>
+        <v>383514</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>478699</v>
+        <v>479530</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.1214703423606737</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.107857704552123</v>
+        <v>0.1088662926373118</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.1358861527418696</v>
+        <v>0.1361221434341268</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>330</v>
@@ -4202,19 +4202,19 @@
         <v>261409</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>231991</v>
+        <v>233550</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>292113</v>
+        <v>292374</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.07015746672110378</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.06226221969139514</v>
+        <v>0.06268054944689727</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.07839794003743461</v>
+        <v>0.07846783514504954</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>661</v>
@@ -4223,19 +4223,19 @@
         <v>689324</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>639884</v>
+        <v>634244</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>747898</v>
+        <v>749047</v>
       </c>
       <c r="U52" s="6" t="n">
-        <v>0.0950945671108067</v>
+        <v>0.09509456711080669</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.08827415246268717</v>
+        <v>0.08749605684962999</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.1031750277168135</v>
+        <v>0.1033336323077529</v>
       </c>
     </row>
     <row r="53">
@@ -4252,19 +4252,19 @@
         <v>447172</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>401941</v>
+        <v>399347</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>503278</v>
+        <v>497395</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.1269366199535153</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.1140971520531434</v>
+        <v>0.1133607545973292</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.1428632890867667</v>
+        <v>0.1411934358741474</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>279</v>
@@ -4273,19 +4273,19 @@
         <v>233617</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>205673</v>
+        <v>207486</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>265222</v>
+        <v>264955</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.06269857075234514</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.05519895965874422</v>
+        <v>0.05568559850910799</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.07118095212005766</v>
+        <v>0.07110916507744038</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>619</v>
@@ -4294,19 +4294,19 @@
         <v>680788</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>620995</v>
+        <v>624745</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>737660</v>
+        <v>740212</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.09391706439164808</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.08566837758939935</v>
+        <v>0.08618569003645581</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.1017627213352392</v>
+        <v>0.1021147397255646</v>
       </c>
     </row>
     <row r="54">
@@ -4323,19 +4323,19 @@
         <v>1469402</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>1403545</v>
+        <v>1405527</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>1532654</v>
+        <v>1533128</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.4171127348377002</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.3984182371537621</v>
+        <v>0.3989807553951411</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.4350677855312697</v>
+        <v>0.4352022226222663</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>2575</v>
@@ -4344,19 +4344,19 @@
         <v>1722176</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>1661158</v>
+        <v>1665854</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>1773681</v>
+        <v>1775295</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.4622010736550757</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.4458250902347469</v>
+        <v>0.4470855130980252</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.4760241227168263</v>
+        <v>0.4764573292612923</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>4110</v>
@@ -4365,19 +4365,19 @@
         <v>3191578</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>3108457</v>
+        <v>3102769</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>3282247</v>
+        <v>3273620</v>
       </c>
       <c r="U54" s="6" t="n">
-        <v>0.4402889820507851</v>
+        <v>0.440288982050785</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.4288222280052479</v>
+        <v>0.4280375020228891</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.4527970676397942</v>
+        <v>0.4516069968208009</v>
       </c>
     </row>
     <row r="55">
@@ -4394,19 +4394,19 @@
         <v>650676</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>597711</v>
+        <v>602206</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>698948</v>
+        <v>703750</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.1847044929192632</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.169669606081482</v>
+        <v>0.1709456076333942</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.198407412707404</v>
+        <v>0.1997705309889588</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>1193</v>
@@ -4415,19 +4415,19 @@
         <v>809626</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>764111</v>
+        <v>764441</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>857817</v>
+        <v>850253</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.2172890185050985</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.2050736793594096</v>
+        <v>0.2051623021777957</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.2302226401030979</v>
+        <v>0.2281926842052802</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>1848</v>
@@ -4436,19 +4436,19 @@
         <v>1460302</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>1395658</v>
+        <v>1392999</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>1526991</v>
+        <v>1526251</v>
       </c>
       <c r="U55" s="6" t="n">
-        <v>0.2014535468898962</v>
+        <v>0.2014535468898961</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.1925357307908203</v>
+        <v>0.1921690020033742</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.2106535381496631</v>
+        <v>0.2105515598696233</v>
       </c>
     </row>
     <row r="56">
@@ -4465,19 +4465,19 @@
         <v>527629</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>482016</v>
+        <v>482447</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>575733</v>
+        <v>578533</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.1497758099288477</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.1368276865290474</v>
+        <v>0.1369500234919536</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.1634308247896932</v>
+        <v>0.164225480026551</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>974</v>
@@ -4486,19 +4486,19 @@
         <v>699204</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>660825</v>
+        <v>654443</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>744330</v>
+        <v>739326</v>
       </c>
       <c r="N56" s="6" t="n">
-        <v>0.1876538703663768</v>
+        <v>0.1876538703663767</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.1773535323873527</v>
+        <v>0.1756408747657231</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.1997647906182012</v>
+        <v>0.1984219731086567</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>1480</v>
@@ -4507,19 +4507,19 @@
         <v>1226833</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>1171029</v>
+        <v>1163135</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>1298674</v>
+        <v>1292946</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.1692458395568641</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.161547407840105</v>
+        <v>0.1604583946248644</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.1791564233590598</v>
+        <v>0.1783662510435417</v>
       </c>
     </row>
     <row r="57">
